--- a/data/outputs/OR/44.xlsx
+++ b/data/outputs/OR/44.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ127"/>
+  <dimension ref="A1:BR127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -921,6 +926,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1130,6 +1136,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1339,6 +1346,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1556,6 +1564,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1765,6 +1774,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1978,6 +1988,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2187,6 +2198,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2400,6 +2412,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2617,6 +2630,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2818,6 +2832,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3035,6 +3050,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3244,6 +3260,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3461,6 +3478,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>2904559</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3674,6 +3696,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3879,6 +3902,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>2537760</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4080,6 +4108,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4293,6 +4322,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4510,6 +4540,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4719,6 +4750,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4924,6 +4956,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5137,6 +5170,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5350,6 +5384,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5559,6 +5594,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5776,6 +5812,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5989,6 +6026,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6202,6 +6240,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6403,6 +6442,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6612,6 +6652,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6821,6 +6862,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7034,6 +7076,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7235,6 +7278,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7436,6 +7480,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7645,6 +7690,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7850,6 +7896,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8055,6 +8102,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8260,6 +8308,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8473,6 +8522,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8686,6 +8736,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8903,6 +8954,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9100,6 +9152,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9317,6 +9370,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>4511755</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9526,6 +9584,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9739,6 +9798,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9936,6 +9996,11 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>4227474</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10141,6 +10206,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10350,6 +10416,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10555,6 +10622,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10756,6 +10824,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10973,6 +11042,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11178,6 +11248,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11383,6 +11454,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11596,6 +11668,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11809,6 +11882,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12014,6 +12088,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12231,6 +12306,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>4572639</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12448,6 +12528,11 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr">
+        <is>
+          <t>62956245</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12653,6 +12738,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12866,6 +12952,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13071,6 +13158,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13280,6 +13368,11 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr">
+        <is>
+          <t>2775527</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13477,6 +13570,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13682,6 +13776,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13895,6 +13990,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13981,7 +14077,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Rong, Ying/0000-0003-3360-1868; </t>
+          <t>Rong, Ying/0000-0003-3360-1868;</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -14112,6 +14208,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14317,6 +14414,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14522,6 +14620,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14731,6 +14830,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>3085630</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14948,6 +15052,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15153,6 +15258,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15366,6 +15472,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15567,6 +15674,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15764,6 +15872,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15981,6 +16090,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16182,6 +16292,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16383,6 +16494,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16592,6 +16704,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16793,6 +16906,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16998,6 +17112,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17195,6 +17310,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17396,6 +17512,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17613,6 +17730,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17822,6 +17940,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18027,6 +18146,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18240,6 +18360,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18457,6 +18578,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18666,6 +18788,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18883,6 +19006,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19100,6 +19224,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19309,6 +19434,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19518,6 +19644,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19727,6 +19854,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19944,6 +20072,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20149,6 +20278,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20362,6 +20492,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20563,6 +20694,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20772,6 +20904,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20981,6 +21114,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21182,6 +21316,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21387,6 +21522,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21596,6 +21732,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21801,6 +21938,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22014,6 +22152,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22223,6 +22362,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22428,6 +22568,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22637,6 +22778,11 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr">
+        <is>
+          <t>11740476</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22834,6 +22980,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23047,6 +23194,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23256,6 +23404,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23457,6 +23606,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23666,6 +23816,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23867,6 +24018,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24076,6 +24228,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24293,6 +24446,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24506,6 +24660,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24695,6 +24850,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24912,6 +25068,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25117,6 +25274,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25330,6 +25488,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25535,6 +25694,7 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25736,6 +25896,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25937,6 +26098,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26146,6 +26308,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26343,6 +26506,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26548,6 +26712,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26757,6 +26922,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -26954,6 +27120,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
